--- a/文档/交付文档/项目周报.xlsx
+++ b/文档/交付文档/项目周报.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10350" tabRatio="628" activeTab="1"/>
+    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="628" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目周报（1）" sheetId="12" r:id="rId1"/>
@@ -1296,7 +1296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145">
   <si>
     <t>项 目 周 报</t>
   </si>
@@ -1583,9 +1583,6 @@
     <t>许浩林</t>
   </si>
   <si>
-    <t>高建莉 黄春飞 张贵杏 黄晓芬 陈会粘</t>
-  </si>
-  <si>
     <t>使用到vuex实现不同页面数据共享和更新</t>
   </si>
   <si>
@@ -1870,12 +1867,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="mmm"/>
+    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="mmm"/>
     <numFmt numFmtId="178" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="179" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="180" formatCode="_(&quot;\&quot;* #,##0_);_(&quot;\&quot;* \(#,##0\);_(&quot;\&quot;* &quot;-&quot;_);_(@_)"/>
@@ -2079,10 +2076,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color indexed="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2093,26 +2103,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2122,21 +2116,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <color indexed="56"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2156,6 +2138,44 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color indexed="23"/>
@@ -2171,17 +2191,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color indexed="56"/>
-      <name val="宋体"/>
+      <sz val="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2192,16 +2208,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="宋体"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2212,14 +2220,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="宋体"/>
+      <sz val="10"/>
+      <name val="MS Sans Serif"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="60"/>
+      <color indexed="17"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -2227,16 +2234,6 @@
       <b/>
       <sz val="12"/>
       <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="MS Sans Serif"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2297,13 +2294,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2315,25 +2354,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="26"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2351,7 +2384,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2363,31 +2432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2399,7 +2444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2411,61 +2462,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="55"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2834,6 +2831,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -2852,8 +2867,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="62"/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2876,17 +2906,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="22"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="30"/>
+      <bottom style="double">
+        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2902,30 +2923,6 @@
       </top>
       <bottom style="thin">
         <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color indexed="63"/>
-      </left>
-      <right style="double">
-        <color indexed="63"/>
-      </right>
-      <top style="double">
-        <color indexed="63"/>
-      </top>
-      <bottom style="double">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2954,172 +2951,172 @@
   </borders>
   <cellStyleXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="17" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="48" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="37" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="52" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="44" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="49" fillId="3" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="25" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="59" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="177" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="38" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="15" fontId="60" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="15" fontId="58" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="37" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="8">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="61" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -3135,17 +3132,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="178" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="178" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="179" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="180" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="54" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyProtection="1">
@@ -3184,7 +3181,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3202,22 +3199,22 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3225,7 +3222,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0" hidden="1"/>
     </xf>
@@ -3248,10 +3245,10 @@
     <xf numFmtId="181" fontId="8" fillId="3" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3265,7 +3262,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="68" applyFill="1" applyBorder="1"/>
@@ -3278,29 +3275,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="46" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="66" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
@@ -3315,13 +3312,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="42" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="46" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="67" applyFont="1" applyAlignment="1">
@@ -3354,113 +3351,113 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="67" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="1" xfId="44" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="68" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="46" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="44" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="46" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="44" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3705,9 +3702,9 @@
     <cellStyle name="桁区切り_(D)日程計画" xfId="41"/>
     <cellStyle name="常规_SEP裁剪工作表" xfId="42"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="43" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="44" builtinId="35"/>
-    <cellStyle name="常规_sst121" xfId="45"/>
-    <cellStyle name="常规_封页" xfId="46"/>
+    <cellStyle name="常规_封页" xfId="44"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="45" builtinId="35"/>
+    <cellStyle name="常规_sst121" xfId="46"/>
     <cellStyle name="强调文字颜色 3" xfId="47" builtinId="37"/>
     <cellStyle name="强调文字颜色 4" xfId="48" builtinId="41"/>
     <cellStyle name="常规_IPPR-B" xfId="49"/>
@@ -3760,12 +3757,7 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -33172,18 +33164,19 @@
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:L46"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:J3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -34124,16 +34117,16 @@
     <mergeCell ref="C20:C21"/>
   </mergeCells>
   <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D18:D23">
+      <formula1>"RA,SD,PD,DD,COD,UT,IT,ST,AT"</formula1>
+    </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="I4:J4 L4 C18 C20 C24:L24 B35:C35 B36:C36 B37:C37 B38:C38 E18:L23 B31:C34 B39:C46"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏内容，每周需要删除上周内容重新填写" sqref="B16:L16"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E30:L30"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D31 D32 D33 D34 D35 D36 D37 D38 D39:D46"/>
     <dataValidation type="list" allowBlank="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="E31 E32 E33:E46 F31:L46">
       <formula1>"√, "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D18:D23">
-      <formula1>"RA,SD,PD,DD,COD,UT,IT,ST,AT"</formula1>
-    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E30:L30"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D31 D32 D33 D34 D35 D36 D37 D38 D39:D46"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.984027777777778" right="0.590277777777778" top="0.786805555555556" bottom="0.786805555555556" header="0.511805555555556" footer="0.511805555555556"/>
@@ -34147,14 +34140,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:M43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -34246,7 +34239,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="116" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="D5" s="117"/>
       <c r="E5" s="117"/>
@@ -34293,7 +34286,7 @@
       </c>
       <c r="C7" s="121"/>
       <c r="D7" s="121" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E7" s="122">
         <v>42957</v>
@@ -34311,18 +34304,18 @@
         <v>42955</v>
       </c>
       <c r="J7" s="121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K7" s="121"/>
       <c r="L7" s="153"/>
     </row>
     <row r="8" ht="20.1" customHeight="1" spans="2:12">
       <c r="B8" s="120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C8" s="121"/>
       <c r="D8" s="121" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="122">
         <v>42957</v>
@@ -34340,14 +34333,14 @@
         <v>42955</v>
       </c>
       <c r="J8" s="121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K8" s="121"/>
       <c r="L8" s="153"/>
     </row>
     <row r="9" ht="33" customHeight="1" spans="2:12">
       <c r="B9" s="120" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="121"/>
       <c r="D9" s="121"/>
@@ -34367,18 +34360,18 @@
         <v>42955</v>
       </c>
       <c r="J9" s="121" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K9" s="121"/>
       <c r="L9" s="153"/>
     </row>
     <row r="10" ht="20.1" customHeight="1" spans="2:12">
       <c r="B10" s="120" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C10" s="121"/>
       <c r="D10" s="121" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="122">
         <v>42957</v>
@@ -34396,7 +34389,7 @@
         <v>42955</v>
       </c>
       <c r="J10" s="121" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K10" s="121"/>
       <c r="L10" s="153"/>
@@ -34932,16 +34925,16 @@
     <mergeCell ref="C17:C18"/>
   </mergeCells>
   <dataValidations count="6">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="I4:J4 L4 C15 C17 C21:L21 B28:C43 E15:L20"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏内容，每周需要删除上周内容重新填写" sqref="B13:L13"/>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E27:L27"/>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D15:D20">
       <formula1>"RA,SD,PD,DD,COD,UT,IT,ST,AT"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D28:D43"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="I4:J4 L4 C15 C17 C21:L21 B28:C43 E15:L20"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="提示：" prompt="此栏内容，每周需要删除上周内容重新填写" sqref="B13:L13"/>
     <dataValidation type="list" allowBlank="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="E28:L43">
       <formula1>"√, "</formula1>
     </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="E27:L27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="提示：" prompt="此栏要求每周删除上周内容重新填写" sqref="D28:D43"/>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.984027777777778" right="0.590277777777778" top="0.786805555555556" bottom="0.786805555555556" header="0.511805555555556" footer="0.511805555555556"/>
@@ -34955,7 +34948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:J117"/>
   <sheetViews>
@@ -34976,12 +34969,12 @@
     </row>
     <row r="2" s="85" customFormat="1" ht="22.5" spans="1:1">
       <c r="A2" s="41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" s="85" customFormat="1" ht="18.75" spans="1:1">
       <c r="A3" s="44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" s="85" customFormat="1" ht="18.75" spans="1:1">
@@ -35028,7 +35021,7 @@
     </row>
     <row r="15" s="85" customFormat="1" ht="51.75" customHeight="1" spans="1:9">
       <c r="A15" s="91" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
@@ -35052,7 +35045,7 @@
     </row>
     <row r="17" s="85" customFormat="1" ht="18.75" spans="1:9">
       <c r="A17" s="94" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="90"/>
       <c r="C17" s="90"/>
@@ -35232,7 +35225,7 @@
     </row>
     <row r="33" s="85" customFormat="1" ht="19.5" spans="1:10">
       <c r="A33" s="95" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B33" s="90"/>
       <c r="C33" s="90"/>
@@ -35246,7 +35239,7 @@
     </row>
     <row r="34" s="85" customFormat="1" ht="19.5" spans="1:10">
       <c r="A34" s="96" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="90"/>
       <c r="C34" s="90"/>
@@ -35355,7 +35348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E111"/>
   <sheetViews>
@@ -35374,7 +35367,7 @@
   <sheetData>
     <row r="1" ht="27" spans="1:5">
       <c r="A1" s="71" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="72"/>
       <c r="C1" s="72"/>
@@ -35389,16 +35382,16 @@
     </row>
     <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="C3" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="D3" s="75" t="s">
         <v>92</v>
-      </c>
-      <c r="D3" s="75" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="4" s="69" customFormat="1" spans="1:4">
@@ -35406,10 +35399,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="77" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D4" s="78">
         <v>40142</v>
@@ -35576,7 +35569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:I56"/>
   <sheetViews>
@@ -35600,12 +35593,12 @@
     </row>
     <row r="2" s="34" customFormat="1" ht="25.5" customHeight="1" spans="1:1">
       <c r="A2" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" s="35" customFormat="1" ht="22.5" spans="1:9">
       <c r="A3" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="42"/>
@@ -35618,7 +35611,7 @@
     </row>
     <row r="4" s="34" customFormat="1" ht="18.75" spans="1:1">
       <c r="A4" s="44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" s="34" customFormat="1" ht="18.75" spans="1:1">
@@ -35663,7 +35656,7 @@
     </row>
     <row r="16" s="36" customFormat="1" ht="46.5" spans="1:8">
       <c r="A16" s="48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" s="48"/>
       <c r="C16" s="48"/>
@@ -35685,7 +35678,7 @@
     </row>
     <row r="18" s="34" customFormat="1" ht="53.25" spans="1:8">
       <c r="A18" s="52" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B18" s="47"/>
       <c r="C18" s="47"/>
@@ -35727,7 +35720,7 @@
     </row>
     <row r="22" s="34" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
       <c r="A22" s="55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B22" s="56"/>
       <c r="C22" s="56"/>
@@ -35799,7 +35792,7 @@
     </row>
     <row r="29" s="37" customFormat="1" ht="22.15" customHeight="1" spans="1:8">
       <c r="A29" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B29" s="58"/>
       <c r="C29" s="58"/>
@@ -35841,31 +35834,31 @@
     </row>
     <row r="33" s="38" customFormat="1" ht="30" customHeight="1" spans="1:8">
       <c r="A33" s="61" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" s="62"/>
       <c r="C33" s="61" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D33" s="62"/>
       <c r="E33" s="61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F33" s="62"/>
       <c r="G33" s="63" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H33" s="62"/>
     </row>
     <row r="34" s="38" customFormat="1" ht="29.25" customHeight="1" spans="1:8">
       <c r="A34" s="61" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B34" s="64"/>
       <c r="C34" s="64"/>
       <c r="D34" s="64"/>
       <c r="E34" s="61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" s="64"/>
       <c r="G34" s="64"/>
@@ -35922,7 +35915,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -35954,7 +35947,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:13">
       <c r="B1" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="7"/>
@@ -35971,40 +35964,40 @@
     <row r="2" ht="40.5" spans="1:13">
       <c r="A2" s="21"/>
       <c r="B2" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="D2" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="E2" s="22" t="s">
         <v>111</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="F2" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="G2" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="G2" s="22" t="s">
+      <c r="H2" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="I2" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="J2" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="K2" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="22" t="s">
         <v>119</v>
-      </c>
-      <c r="M2" s="22" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="3" s="17" customFormat="1" ht="20.1" customHeight="1" spans="1:13">
@@ -36013,10 +36006,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3" s="27">
         <v>39379</v>
@@ -36026,17 +36019,17 @@
         <v>每天</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H3" s="25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I3" s="27">
         <v>39467</v>
       </c>
       <c r="J3" s="31"/>
       <c r="K3" s="32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L3" s="27"/>
       <c r="M3" s="33"/>
@@ -36048,7 +36041,7 @@
       </c>
       <c r="C4" s="25"/>
       <c r="D4" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="27"/>
       <c r="F4" s="28" t="str">
@@ -36070,7 +36063,7 @@
       </c>
       <c r="C5" s="25"/>
       <c r="D5" s="26" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="28" t="str">
@@ -36092,7 +36085,7 @@
       </c>
       <c r="C6" s="25"/>
       <c r="D6" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="str">
@@ -38856,27 +38849,27 @@
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -38886,14 +38879,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22">
-      <formula1>"A,B,C,D"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K65536 M23:M65536">
+      <formula1>"Y,N"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K3:K22">
       <formula1>"对应中,关闭"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K23:K65536 M23:M65536">
-      <formula1>"Y,N"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D22">
+      <formula1>"A,B,C,D"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="M3:M22">
       <formula1>"√, "</formula1>
@@ -38912,7 +38905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="B1:M25"/>
   <sheetViews>
@@ -38940,7 +38933,7 @@
   <sheetData>
     <row r="1" ht="51" customHeight="1" spans="2:13">
       <c r="B1" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="8"/>
@@ -38956,40 +38949,40 @@
     </row>
     <row r="2" ht="36.75" customHeight="1" spans="2:13">
       <c r="B2" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="I2" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="K2" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>143</v>
-      </c>
       <c r="L2" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" ht="20.1" customHeight="1" spans="2:13">
@@ -39314,7 +39307,7 @@
     </row>
     <row r="24" s="1" customFormat="1" spans="2:13">
       <c r="B24" s="12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -39330,7 +39323,7 @@
     </row>
     <row r="25" s="1" customFormat="1" spans="2:13">
       <c r="B25" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
